--- a/va_facility_data_2025-02-20/St. George VA Clinic - Facility Data.xlsx"; filename*=UTF-8''St.%20George%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/St. George VA Clinic - Facility Data.xlsx"; filename*=UTF-8''St.%20George%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R34b7f245cde440dd80b9d72ae03bb063"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re3e3831c9575411d91f4f36d3f8c3e6c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6ad1b53cb36e4590bd2dacf271409e76"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1ec07678e33b4696ba82a8772d4ce0ad"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc8cf2c23a4534825940f9e647ee8e12c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R45a16ea269ae47e086f51249b223f113"/>
   </x:sheets>
 </x:workbook>
 </file>
